--- a/REV.xlsx
+++ b/REV.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>第一章</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,6 +45,22 @@
   </si>
   <si>
     <t>对话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你慢慢醒来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周围在下小雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你选择：在休息一会；出去看看</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -427,16 +443,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E3"/>
+  <dimension ref="A2:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="5" max="5" width="27.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -465,6 +481,22 @@
       </c>
       <c r="C3" t="s">
         <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/REV.xlsx
+++ b/REV.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="18315" windowHeight="5820" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="18315" windowHeight="5820" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="系统结构" sheetId="1" r:id="rId1"/>
-    <sheet name="数值" sheetId="2" r:id="rId2"/>
-    <sheet name="剧情" sheetId="3" r:id="rId3"/>
-    <sheet name="战斗" sheetId="4" r:id="rId4"/>
-    <sheet name="地图" sheetId="5" r:id="rId5"/>
+    <sheet name="sturcture" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="2" r:id="rId2"/>
+    <sheet name="story" sheetId="3" r:id="rId3"/>
+    <sheet name="battle" sheetId="4" r:id="rId4"/>
+    <sheet name="maps" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="74">
   <si>
     <t>第一章</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,6 +61,255 @@
   </si>
   <si>
     <t>你选择：在休息一会；出去看看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿刺伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钝击伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切割伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接物理伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续物理伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生化伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绞杀伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电击伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高温伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰冻伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真菌感染</t>
+  </si>
+  <si>
+    <t>细菌感染</t>
+  </si>
+  <si>
+    <t>病毒感染</t>
+  </si>
+  <si>
+    <t>有机中毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无机中毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窒息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放射性伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腐蚀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非战斗属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饱食度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消化速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胃囊上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侦查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐蔽度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侦查力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿刺防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钝击防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切割防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绞杀防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流血抵抗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窒息抵抗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腐蚀抵抗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有机中毒抵抗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无机中毒抵抗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真菌感染抵抗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>细菌感染抵抗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病毒感染抵抗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高温抵抗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰冻抵抗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电击抵抗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放射性抵抗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>情绪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心智坚韧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -68,7 +317,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,16 +333,52 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="3" tint="-0.249977111117893"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -101,15 +386,60 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="3" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -430,14 +760,364 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:H71"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="9" style="3"/>
+    <col min="3" max="3" width="9" style="7"/>
+    <col min="4" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B3" s="6"/>
+      <c r="C3" s="11"/>
+    </row>
+    <row r="4" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="6" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C7" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C8" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C9" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C10" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C13" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C14" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C17" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C19" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C20" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C21" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C22" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C25" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C26" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C27" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C28" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C31" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C32" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C33" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C34" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C37" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C38" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C41" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C42" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C43" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C44" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C45" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C46" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B48" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C49" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C50" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C51" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C52" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="1">
+        <v>2</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D53" s="2"/>
+    </row>
+    <row r="55" spans="2:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B55" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C56" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C57" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C58" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C59" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C60" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B62" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C63" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B65" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C66" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C67" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B69" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C70" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C71" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -445,8 +1125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -509,7 +1189,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>

--- a/REV.xlsx
+++ b/REV.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="18315" windowHeight="5820" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="18315" windowHeight="5820" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="sturcture" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="story" sheetId="3" r:id="rId3"/>
     <sheet name="battle" sheetId="4" r:id="rId4"/>
     <sheet name="maps" sheetId="5" r:id="rId5"/>
+    <sheet name="1-1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="87">
   <si>
     <t>第一章</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,23 +129,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>真菌感染</t>
-  </si>
-  <si>
-    <t>细菌感染</t>
-  </si>
-  <si>
-    <t>病毒感染</t>
-  </si>
-  <si>
-    <t>有机中毒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无机中毒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>流血</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -249,26 +233,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>有机中毒抵抗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无机中毒抵抗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>真菌感染抵抗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>细菌感染抵抗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>病毒感染抵抗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>高温抵抗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -301,15 +265,107 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>心智坚韧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>心情</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>心智坚韧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>体力</t>
+    <t>中毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感染</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中毒抵抗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感染抵抗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心灵伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心灵抗性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-加载界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启战斗界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-加载怪物信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-加载角色信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-执行战斗回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-重复执行战斗回合，直到触发结束条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-关闭战斗界面，并同步战斗结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物的对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-战斗属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载主界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载某个地图的界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭某个地图的界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -401,7 +457,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -440,6 +496,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -760,10 +819,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H71"/>
+  <dimension ref="B2:H67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -837,12 +896,12 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C13" s="7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C14" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -855,263 +914,243 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C17" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C18" s="7" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C19" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C20" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C21" s="7" t="s">
-        <v>28</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C22" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>35</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C23" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C24" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C25" s="7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C26" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C27" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C28" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>50</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C29" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C30" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C31" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C32" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C35" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C36" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C39" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C33" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C34" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C37" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C38" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>22</v>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C40" s="7" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C41" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C42" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C43" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B43" s="8" t="s">
         <v>59</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C44" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C45" s="7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C46" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C47" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C48" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C48" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C49" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C50" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C51" s="7" t="s">
-        <v>65</v>
+    </row>
+    <row r="49" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="1">
+        <v>2</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D49" s="2"/>
+    </row>
+    <row r="51" spans="2:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B51" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C52" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="1">
-        <v>2</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D53" s="2"/>
-    </row>
-    <row r="55" spans="2:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C55" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C53" s="7" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C54" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C55" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C56" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B58" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="9" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C57" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C58" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C59" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B61" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C61" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C60" s="7" t="s">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C62" s="7" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C63" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="65" spans="2:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B65" s="8" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C66" s="7" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C67" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="69" spans="2:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C70" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C71" s="7" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1211,4 +1250,102 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B2" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B3" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C4" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C5" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C6" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C7" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C8" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C9" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B12" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C13" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C14" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B16" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C17" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C18" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>